--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1806039.054825921</v>
+        <v>1805326.753002875</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058554</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1254,20 +1254,20 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>48.99828617350681</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.70363732417403</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554829</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240821</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929898</v>
+        <v>16.73328122929915</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>49.36873040538051</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.3176172467516</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958209</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560844</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298262</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.9068624454631</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693648</v>
+        <v>13.44252716693665</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242262</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382095</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233459</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394393</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>131.6637341220919</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256628</v>
+        <v>25.28169700256645</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.2897802131129</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725535</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.508292815498</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138224</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362677</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517487</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110076</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,61 +1619,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29.37348730974278</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.73328122929915</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.36873040538051</v>
+      </c>
+      <c r="T14" t="n">
+        <v>44.3176172467516</v>
+      </c>
+      <c r="U14" t="n">
+        <v>72.00227733958209</v>
+      </c>
+      <c r="V14" t="n">
+        <v>142.7315194560844</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="H14" t="n">
-        <v>45.65509259710289</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>49.3687304053804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>44.31761724675148</v>
-      </c>
-      <c r="U14" t="n">
-        <v>72.00227733958198</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>168.5520738305239</v>
+        <v>9.369887371298262</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693654</v>
+        <v>13.44252716693665</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242251</v>
+        <v>151.8880508831395</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382084</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233447</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394382</v>
+        <v>88.55631942394393</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640283</v>
+        <v>39.16465028640295</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095784</v>
+        <v>45.23602198095796</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256634</v>
+        <v>25.28169700256645</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311279</v>
+        <v>57.2897802131129</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725535</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154978</v>
+        <v>110.508292815498</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138224</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362677</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517476</v>
+        <v>43.77119125517487</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110065</v>
+        <v>38.99300866110076</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.7515787130288</v>
       </c>
       <c r="G17" t="n">
         <v>121.3905020356641</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216753</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
         <v>40.44879289878247</v>
@@ -1920,22 +1920,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>36.25424678692469</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>31.30917887851532</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084915</v>
       </c>
       <c r="C20" t="n">
         <v>52.7578264541944</v>
@@ -2144,7 +2144,7 @@
         <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772172</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
         <v>84.83789649146547</v>
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V21" t="n">
-        <v>46.33206439561989</v>
+        <v>64.1930518489749</v>
       </c>
       <c r="W21" t="n">
         <v>188.4979333192472</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>25.41950479923578</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>37.16694372081717</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890776</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2558,22 @@
         <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182264</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376353</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160126</v>
       </c>
       <c r="G26" t="n">
         <v>205.3534224386476</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845497</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147511</v>
+        <v>27.52501869147513</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444727</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818309</v>
+        <v>8.98113087581835</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864884</v>
       </c>
       <c r="V26" t="n">
         <v>107.3950330851511</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489347</v>
+        <v>1.486173081489375</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288768</v>
+        <v>23.74331897288771</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140131</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>69.3951036310868</v>
+        <v>58.08077161235234</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469673</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024685</v>
+        <v>9.899535610024714</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217966</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632211</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456468</v>
+        <v>75.17180644456471</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044897</v>
+        <v>31.624264660449</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533442</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241597</v>
+        <v>8.434704884241626</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167487</v>
+        <v>3.656522290167516</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G29" t="n">
         <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147505</v>
+        <v>27.52501869147499</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444713</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818264</v>
+        <v>8.981130875818208</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V29" t="n">
         <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X29" t="n">
         <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9709236054903</v>
+        <v>1.486173081489233</v>
       </c>
       <c r="U30" t="n">
-        <v>33.00007767925352</v>
+        <v>23.74331897288756</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140126</v>
+        <v>27.1641703914012</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>168.890682666315</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>3.82816391546956</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024628</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217957</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250791</v>
+        <v>8.830241241423773</v>
       </c>
       <c r="U33" t="n">
         <v>22.91560910602341</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453705</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>52.39212318614639</v>
       </c>
       <c r="X33" t="n">
-        <v>102.269068925582</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.071825743160417</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3238,7 @@
         <v>21.12558397531536</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945781</v>
+        <v>9.449098059457809</v>
       </c>
       <c r="U34" t="n">
         <v>74.34409657770041</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215648</v>
       </c>
       <c r="C35" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491027</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71299138595856</v>
+        <v>65.71299138595873</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536743</v>
+        <v>99.4197438053676</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837448</v>
+        <v>131.1400813837449</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063798</v>
+        <v>146.77900470638</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228201</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288346</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949834</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843758</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621813</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>80.16410009349696</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>87.71408607913752</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229705</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306677</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215648</v>
       </c>
       <c r="C38" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491027</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595856</v>
+        <v>65.71299138595873</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536743</v>
+        <v>99.4197438053676</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1400813837448</v>
+        <v>131.1400813837449</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063798</v>
+        <v>146.77900470638</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228201</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288346</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949834</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843758</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621813</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>112.2690317972122</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>105.8420974034087</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229705</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306677</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.0774711623573</v>
+        <v>133.0774711623571</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1957281657028</v>
+        <v>109.1957281657026</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675124</v>
+        <v>96.7623904267511</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4691428461601</v>
+        <v>130.46914284616</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245373</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8284037471725</v>
+        <v>177.8284037471724</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0116293930745</v>
+        <v>106.0116293930744</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173564</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367597</v>
+        <v>79.87001439367583</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029085</v>
+        <v>96.8866946102907</v>
       </c>
       <c r="X41" t="n">
-        <v>118.7729450792301</v>
+        <v>118.7729450792299</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029737</v>
       </c>
     </row>
     <row r="42">
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>18.89409119935252</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>176.5568712971986</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308942</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973719</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385914</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042674985</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.48433235369107</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161005</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>49.17805103464121</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4829,25 +4829,25 @@
         <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="T8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,13 +4884,13 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
         <v>6.462484272827225</v>
@@ -4902,16 +4902,16 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U9" t="n">
         <v>9.565433267111001</v>
@@ -4923,10 +4923,10 @@
         <v>9.565433267111001</v>
       </c>
       <c r="X9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.102302681225188</v>
+        <v>9.565433267111001</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>470.3191995089632</v>
+        <v>185.6587583579468</v>
       </c>
       <c r="C11" t="n">
-        <v>470.3191995089632</v>
+        <v>185.6587583579468</v>
       </c>
       <c r="D11" t="n">
-        <v>309.0829414391051</v>
+        <v>185.6587583579468</v>
       </c>
       <c r="E11" t="n">
-        <v>118.6809885913804</v>
+        <v>185.6587583579468</v>
       </c>
       <c r="F11" t="n">
-        <v>118.6809885913804</v>
+        <v>185.6587583579468</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554807</v>
+        <v>185.6587583579468</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554807</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>15.07983466553978</v>
+        <v>115.4328134021287</v>
       </c>
       <c r="K11" t="n">
-        <v>156.5975123021101</v>
+        <v>285.1396746888278</v>
       </c>
       <c r="L11" t="n">
-        <v>203.3183547828703</v>
+        <v>331.860517169588</v>
       </c>
       <c r="M11" t="n">
-        <v>284.1802538698176</v>
+        <v>412.7224162565353</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558724</v>
+        <v>599.3353702425902</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485402</v>
+        <v>633.556004935258</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324995</v>
+        <v>753.9917332769892</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769892</v>
       </c>
       <c r="R11" t="n">
         <v>737.0894290049698</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550907</v>
+        <v>687.2220245550905</v>
       </c>
       <c r="T11" t="n">
-        <v>687.2220245550907</v>
+        <v>642.4567546088767</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4924514848059</v>
+        <v>569.727181538592</v>
       </c>
       <c r="V11" t="n">
-        <v>470.3191995089632</v>
+        <v>425.5539295627492</v>
       </c>
       <c r="W11" t="n">
-        <v>470.3191995089632</v>
+        <v>425.5539295627492</v>
       </c>
       <c r="X11" t="n">
-        <v>470.3191995089632</v>
+        <v>425.5539295627492</v>
       </c>
       <c r="Y11" t="n">
-        <v>470.3191995089632</v>
+        <v>235.1519767150247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>220.2315406621959</v>
+        <v>24.54436736382085</v>
       </c>
       <c r="C12" t="n">
-        <v>210.767007963915</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D12" t="n">
-        <v>210.767007963915</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E12" t="n">
-        <v>210.767007963915</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F12" t="n">
-        <v>50.33929168115907</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G12" t="n">
-        <v>50.33929168115907</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H12" t="n">
-        <v>50.33929168115907</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I12" t="n">
-        <v>50.33929168115907</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M12" t="n">
         <v>352.0527264137999</v>
@@ -5136,34 +5136,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P12" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769892</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596546</v>
+        <v>747.0528889596549</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596546</v>
+        <v>610.9722821020007</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900219</v>
+        <v>597.3939718323677</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2799731825245</v>
+        <v>560.1993663248701</v>
       </c>
       <c r="U12" t="n">
-        <v>636.60340212816</v>
+        <v>500.5227952705055</v>
       </c>
       <c r="V12" t="n">
-        <v>573.4714256005495</v>
+        <v>437.3908187428948</v>
       </c>
       <c r="W12" t="n">
-        <v>484.0205978995962</v>
+        <v>347.9399910419413</v>
       </c>
       <c r="X12" t="n">
-        <v>444.4603450850479</v>
+        <v>157.5380381942168</v>
       </c>
       <c r="Y12" t="n">
-        <v>398.767393589131</v>
+        <v>24.54436736382085</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>26.6540070148243</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>26.6540070148243</v>
+        <v>47.71579242887316</v>
       </c>
       <c r="E13" t="n">
-        <v>26.6540070148243</v>
+        <v>47.71579242887316</v>
       </c>
       <c r="F13" t="n">
-        <v>65.48317513009927</v>
+        <v>86.54496054414795</v>
       </c>
       <c r="G13" t="n">
-        <v>65.48317513009927</v>
+        <v>86.54496054414795</v>
       </c>
       <c r="H13" t="n">
-        <v>65.48317513009927</v>
+        <v>86.54496054414795</v>
       </c>
       <c r="I13" t="n">
-        <v>78.64551825435103</v>
+        <v>86.54496054414795</v>
       </c>
       <c r="J13" t="n">
-        <v>78.64551825435103</v>
+        <v>143.8745305486051</v>
       </c>
       <c r="K13" t="n">
-        <v>78.64551825435103</v>
+        <v>143.8745305486051</v>
       </c>
       <c r="L13" t="n">
-        <v>223.1820016801911</v>
+        <v>143.8745305486051</v>
       </c>
       <c r="M13" t="n">
-        <v>223.1820016801911</v>
+        <v>295.2766153152376</v>
       </c>
       <c r="N13" t="n">
-        <v>262.981006188639</v>
+        <v>455.288441031186</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423772</v>
+        <v>455.288441031186</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351846</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426693</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633093</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015791</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578868</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604141</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064926</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117139</v>
+        <v>98.68003660117174</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099492</v>
+        <v>54.4667121009951</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>586.6294858106111</v>
+        <v>44.75002386730016</v>
       </c>
       <c r="C14" t="n">
-        <v>412.834300731711</v>
+        <v>44.75002386730016</v>
       </c>
       <c r="D14" t="n">
-        <v>251.598042661853</v>
+        <v>44.75002386730016</v>
       </c>
       <c r="E14" t="n">
-        <v>251.598042661853</v>
+        <v>44.75002386730016</v>
       </c>
       <c r="F14" t="n">
-        <v>251.598042661853</v>
+        <v>44.75002386730016</v>
       </c>
       <c r="G14" t="n">
-        <v>61.19608981412856</v>
+        <v>44.75002386730016</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553978</v>
+        <v>44.75002386730016</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888279</v>
+        <v>184.7866959522389</v>
       </c>
       <c r="L14" t="n">
-        <v>471.7526286748827</v>
+        <v>364.7440836668297</v>
       </c>
       <c r="M14" t="n">
-        <v>552.61452776183</v>
+        <v>445.6059827537771</v>
       </c>
       <c r="N14" t="n">
-        <v>627.9424208975224</v>
+        <v>632.2189367398319</v>
       </c>
       <c r="O14" t="n">
-        <v>662.1630555901902</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324995</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="Q14" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>753.991733276989</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="S14" t="n">
-        <v>704.1243288271097</v>
+        <v>687.2220245550902</v>
       </c>
       <c r="T14" t="n">
-        <v>659.359058880896</v>
+        <v>642.4567546088765</v>
       </c>
       <c r="U14" t="n">
-        <v>586.6294858106111</v>
+        <v>569.7271815385916</v>
       </c>
       <c r="V14" t="n">
-        <v>586.6294858106111</v>
+        <v>425.553929562749</v>
       </c>
       <c r="W14" t="n">
-        <v>586.6294858106111</v>
+        <v>425.553929562749</v>
       </c>
       <c r="X14" t="n">
-        <v>586.6294858106111</v>
+        <v>425.553929562749</v>
       </c>
       <c r="Y14" t="n">
-        <v>586.6294858106111</v>
+        <v>235.1519767150245</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>398.7673935891305</v>
+        <v>24.54436736382085</v>
       </c>
       <c r="C15" t="n">
-        <v>228.5127735582983</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D15" t="n">
-        <v>228.5127735582983</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E15" t="n">
-        <v>228.5127735582983</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553978</v>
@@ -5364,13 +5364,13 @@
         <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P15" t="n">
         <v>753.991733276989</v>
@@ -5382,25 +5382,25 @@
         <v>747.0528889596546</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900218</v>
+        <v>733.4745786900216</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2799731825243</v>
+        <v>580.0523050706888</v>
       </c>
       <c r="U15" t="n">
-        <v>636.6034021281598</v>
+        <v>389.6503522229644</v>
       </c>
       <c r="V15" t="n">
-        <v>573.4714256005492</v>
+        <v>199.2483993752399</v>
       </c>
       <c r="W15" t="n">
-        <v>484.0205978995958</v>
+        <v>109.7975716742864</v>
       </c>
       <c r="X15" t="n">
-        <v>444.4603450850475</v>
+        <v>70.23731885973798</v>
       </c>
       <c r="Y15" t="n">
-        <v>398.7673935891305</v>
+        <v>24.54436736382085</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875835</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875835</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553978</v>
+        <v>48.24182248209173</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553978</v>
+        <v>48.24182248209173</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07983466553978</v>
+        <v>87.07099059736652</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07983466553978</v>
+        <v>87.07099059736652</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07983466553978</v>
+        <v>99.27161843078359</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07983466553978</v>
+        <v>112.4339615550352</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07983466553978</v>
+        <v>112.4339615550352</v>
       </c>
       <c r="K16" t="n">
-        <v>52.54721506520613</v>
+        <v>112.4339615550352</v>
       </c>
       <c r="L16" t="n">
-        <v>52.54721506520613</v>
+        <v>179.6299246148141</v>
       </c>
       <c r="M16" t="n">
-        <v>52.54721506520613</v>
+        <v>331.0320093814466</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5590407811547</v>
+        <v>331.0320093814466</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348929</v>
+        <v>470.2946957351846</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351836</v>
+        <v>470.2946957351846</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426684</v>
+        <v>520.7166611426693</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633085</v>
+        <v>495.1795934633093</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015784</v>
+        <v>437.3111286015791</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578862</v>
+        <v>391.2370939578868</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604136</v>
+        <v>279.6125557604141</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064923</v>
+        <v>211.9754335064926</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117151</v>
+        <v>98.68003660117174</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099498</v>
+        <v>54.4667121009951</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5492,16 +5492,16 @@
         <v>463.3923242961948</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040792</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718622</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116215</v>
@@ -5510,37 +5510,37 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07983466553978</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="K17" t="n">
-        <v>15.07983466553978</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="L17" t="n">
-        <v>61.80067714629995</v>
+        <v>304.2871538267481</v>
       </c>
       <c r="M17" t="n">
-        <v>142.6625762332473</v>
+        <v>385.1490529136954</v>
       </c>
       <c r="N17" t="n">
-        <v>217.9904693689397</v>
+        <v>460.4769460493878</v>
       </c>
       <c r="O17" t="n">
-        <v>252.2111040616075</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="P17" t="n">
-        <v>344.7821852298779</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="Q17" t="n">
-        <v>531.3951392159327</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="R17" t="n">
-        <v>632.935603505104</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="S17" t="n">
-        <v>632.935603505104</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="T17" t="n">
         <v>707.1675751369976</v>
@@ -5558,7 +5558,7 @@
         <v>626.5008757530782</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>575.4558803500538</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="C18" t="n">
-        <v>386.0436060830175</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="D18" t="n">
-        <v>225.2634898440492</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="E18" t="n">
-        <v>51.70028596546371</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553978</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="G18" t="n">
         <v>15.07983466553978</v>
@@ -5595,10 +5595,10 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142018</v>
+        <v>53.0431606814202</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137998</v>
@@ -5607,7 +5607,7 @@
         <v>538.6656803998546</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P18" t="n">
         <v>753.991733276989</v>
@@ -5616,28 +5616,28 @@
         <v>753.991733276989</v>
       </c>
       <c r="R18" t="n">
-        <v>753.991733276989</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="S18" t="n">
-        <v>753.991733276989</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="T18" t="n">
-        <v>753.991733276989</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="U18" t="n">
-        <v>753.991733276989</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="V18" t="n">
-        <v>753.991733276989</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="W18" t="n">
-        <v>753.991733276989</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="X18" t="n">
-        <v>753.991733276989</v>
+        <v>46.70526787616132</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.991733276989</v>
+        <v>46.70526787616132</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C20" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E20" t="n">
         <v>294.5907522718622</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116217</v>
@@ -5747,40 +5747,40 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>38.41954622895918</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J20" t="n">
-        <v>38.41954622895918</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="K20" t="n">
-        <v>38.41954622895918</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="L20" t="n">
-        <v>85.14038870971935</v>
+        <v>248.4136311323547</v>
       </c>
       <c r="M20" t="n">
-        <v>166.0022877966667</v>
+        <v>435.0265851184095</v>
       </c>
       <c r="N20" t="n">
-        <v>241.3301809323591</v>
+        <v>621.6395391044643</v>
       </c>
       <c r="O20" t="n">
-        <v>275.5508156250269</v>
+        <v>655.8601737971321</v>
       </c>
       <c r="P20" t="n">
-        <v>275.5508156250269</v>
+        <v>655.8601737971321</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110817</v>
+        <v>655.8601737971321</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002531</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S20" t="n">
-        <v>632.935603505104</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369976</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U20" t="n">
         <v>753.991733276989</v>
@@ -5795,7 +5795,7 @@
         <v>626.5008757530779</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>509.8508710658494</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="C21" t="n">
-        <v>509.8508710658494</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D21" t="n">
-        <v>349.0707548268812</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5075509482957</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07983466553978</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G21" t="n">
         <v>15.07983466553978</v>
@@ -5847,34 +5847,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P21" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596546</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596546</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596546</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596546</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0528889596546</v>
+        <v>420.5703292542761</v>
       </c>
       <c r="V21" t="n">
-        <v>700.2528239135739</v>
+        <v>355.72886274016</v>
       </c>
       <c r="W21" t="n">
-        <v>509.8508710658494</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="X21" t="n">
-        <v>509.8508710658494</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="Y21" t="n">
-        <v>509.8508710658494</v>
+        <v>165.3269098924356</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961941</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040786</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D23" t="n">
         <v>369.3697837210052</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718619</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116215</v>
@@ -5987,52 +5987,52 @@
         <v>70.95335735993308</v>
       </c>
       <c r="J23" t="n">
-        <v>139.9600105181307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K23" t="n">
-        <v>139.9600105181307</v>
+        <v>87.94525579440452</v>
       </c>
       <c r="L23" t="n">
-        <v>186.6808529988908</v>
+        <v>134.6660982751647</v>
       </c>
       <c r="M23" t="n">
-        <v>267.5427520858382</v>
+        <v>321.2790522612195</v>
       </c>
       <c r="N23" t="n">
-        <v>342.8706452215306</v>
+        <v>396.6069453969119</v>
       </c>
       <c r="O23" t="n">
-        <v>377.0912799141984</v>
+        <v>583.2198993829667</v>
       </c>
       <c r="P23" t="n">
-        <v>377.0912799141984</v>
+        <v>583.2198993829667</v>
       </c>
       <c r="Q23" t="n">
-        <v>563.7042339002531</v>
+        <v>583.2198993829667</v>
       </c>
       <c r="R23" t="n">
-        <v>563.7042339002531</v>
+        <v>684.7603636721381</v>
       </c>
       <c r="S23" t="n">
-        <v>632.935603505104</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369976</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U23" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>242.0344763273409</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="C24" t="n">
-        <v>52.6222020603046</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D24" t="n">
-        <v>52.6222020603046</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>52.6222020603046</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>52.6222020603046</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
         <v>15.07983466553978</v>
@@ -6084,34 +6084,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P24" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596546</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821020005</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="S24" t="n">
-        <v>610.9722821020005</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="T24" t="n">
-        <v>610.9722821020005</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="U24" t="n">
-        <v>610.9722821020005</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="V24" t="n">
-        <v>420.570329254276</v>
+        <v>420.5703292542761</v>
       </c>
       <c r="W24" t="n">
-        <v>420.570329254276</v>
+        <v>420.5703292542761</v>
       </c>
       <c r="X24" t="n">
-        <v>420.570329254276</v>
+        <v>420.5703292542761</v>
       </c>
       <c r="Y24" t="n">
-        <v>420.570329254276</v>
+        <v>230.1683764065516</v>
       </c>
     </row>
     <row r="25">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874105</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942526</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350251</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471336</v>
+        <v>406.0329511471339</v>
       </c>
       <c r="G26" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141565</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845027</v>
+        <v>63.71974859844968</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523997</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581081</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.417797666886</v>
@@ -6257,7 +6257,7 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
@@ -6266,7 +6266,7 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>520.1546948033794</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C27" t="n">
-        <v>520.1546948033794</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>520.1546948033794</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>346.5914909247938</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
-        <v>186.1637746420379</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G27" t="n">
         <v>35.91669941514208</v>
@@ -6315,40 +6315,40 @@
         <v>372.8895911634021</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741613</v>
+        <v>577.7945675741614</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931957</v>
+        <v>709.4955071931959</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512957</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512957</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="R27" t="n">
-        <v>657.0400135936416</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="S27" t="n">
-        <v>657.0400135936416</v>
+        <v>592.6557242955733</v>
       </c>
       <c r="T27" t="n">
-        <v>655.5388286628443</v>
+        <v>591.154539364776</v>
       </c>
       <c r="U27" t="n">
-        <v>631.5556781851799</v>
+        <v>567.1713888871117</v>
       </c>
       <c r="V27" t="n">
-        <v>604.1171222342695</v>
+        <v>324.0916707907458</v>
       </c>
       <c r="W27" t="n">
-        <v>534.0210579604444</v>
+        <v>265.4242247176626</v>
       </c>
       <c r="X27" t="n">
-        <v>530.1542257225963</v>
+        <v>45.91623033435896</v>
       </c>
       <c r="Y27" t="n">
-        <v>520.1546948033794</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="28">
@@ -6394,37 +6394,37 @@
         <v>35.91669941514208</v>
       </c>
       <c r="N28" t="n">
-        <v>230.9116466383145</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="O28" t="n">
-        <v>230.9116466383145</v>
+        <v>180.7574272613012</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760096</v>
+        <v>180.7574272613012</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760098</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760098</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909798</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239878</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032153</v>
+        <v>157.6757382032154</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259942</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737347</v>
+        <v>48.13006019737354</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389711</v>
+        <v>39.61015627389715</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514208</v>
@@ -6440,37 +6440,37 @@
         <v>1020.898422489612</v>
       </c>
       <c r="C29" t="n">
-        <v>882.796657987412</v>
+        <v>882.7966579874123</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942541</v>
+        <v>757.2538204942546</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350266</v>
+        <v>597.6637583350272</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471352</v>
+        <v>406.0329511471359</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141579</v>
+        <v>198.6052517141586</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845136</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589554</v>
+        <v>171.2527996589547</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528784</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523996</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581078</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6485,7 +6485,7 @@
         <v>1777.417797666887</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757104</v>
+        <v>1795.834970757105</v>
       </c>
       <c r="S29" t="n">
         <v>1781.660986883925</v>
@@ -6494,16 +6494,16 @@
         <v>1772.589137514412</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020828</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366664</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715705</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.9219220251447</v>
+        <v>370.2600195326959</v>
       </c>
       <c r="C30" t="n">
-        <v>88.9219220251447</v>
+        <v>370.2600195326959</v>
       </c>
       <c r="D30" t="n">
-        <v>88.9219220251447</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="E30" t="n">
-        <v>88.9219220251447</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="F30" t="n">
-        <v>88.9219220251447</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="G30" t="n">
-        <v>88.9219220251447</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="H30" t="n">
-        <v>88.9219220251447</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="I30" t="n">
-        <v>88.9219220251447</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="K30" t="n">
         <v>73.88002543102249</v>
@@ -6552,40 +6552,40 @@
         <v>372.8895911634021</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741613</v>
+        <v>577.7945675741614</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931957</v>
+        <v>709.4955071931959</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512957</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339614</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="R30" t="n">
-        <v>650.1011692763072</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="S30" t="n">
-        <v>650.1011692763072</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="T30" t="n">
-        <v>432.9588222000544</v>
+        <v>784.6805912031643</v>
       </c>
       <c r="U30" t="n">
-        <v>399.6254104028287</v>
+        <v>760.6974407255001</v>
       </c>
       <c r="V30" t="n">
-        <v>372.1868544519183</v>
+        <v>733.2588847745898</v>
       </c>
       <c r="W30" t="n">
-        <v>102.7882851822096</v>
+        <v>562.6622356166959</v>
       </c>
       <c r="X30" t="n">
-        <v>98.92145294436149</v>
+        <v>558.7954033788478</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.9219220251447</v>
+        <v>548.795872459631</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="E31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="F31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="G31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="H31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="I31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="J31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="K31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="M31" t="n">
-        <v>107.0072226338003</v>
+        <v>107.0072226338004</v>
       </c>
       <c r="N31" t="n">
-        <v>107.0072226338003</v>
+        <v>112.7064240684941</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760092</v>
+        <v>112.7064240684941</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909794</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737337</v>
+        <v>48.13006019737325</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389706</v>
+        <v>39.61015627389701</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514209</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806687</v>
+        <v>877.5242945806684</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601008</v>
+        <v>752.8175276601007</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734635</v>
+        <v>594.0635360734634</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581622</v>
+        <v>403.2687994581621</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977755</v>
+        <v>196.6771705977749</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465902</v>
+        <v>62.62773805465905</v>
       </c>
       <c r="I32" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>377.3257080180682</v>
       </c>
       <c r="L32" t="n">
         <v>636.2158862857848</v>
@@ -6710,28 +6710,28 @@
         <v>929.2471211596887</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579725</v>
+        <v>1216.744350082338</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1463.134320561962</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218728</v>
+        <v>1640.446650218729</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1763.801366338637</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.03797219705</v>
+        <v>1783.037972197051</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.700058896461</v>
+        <v>1769.700058896462</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099538</v>
+        <v>1761.464280099539</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178544</v>
       </c>
       <c r="V32" t="n">
         <v>1617.620437351991</v>
@@ -6743,7 +6743,7 @@
         <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="C33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="D33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="E33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="F33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="G33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="H33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="I33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="J33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="K33" t="n">
-        <v>73.6240854598214</v>
+        <v>73.62408545982143</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881956</v>
       </c>
       <c r="M33" t="n">
-        <v>372.633651192201</v>
+        <v>372.6336511922011</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029602</v>
+        <v>577.5386276029603</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219947</v>
+        <v>709.2395672219948</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800946</v>
+        <v>792.8646804800948</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627604</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627604</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800946</v>
+        <v>592.3997843243723</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218875</v>
+        <v>583.4803487269745</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168133</v>
+        <v>560.3332688219003</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384931</v>
+        <v>317.2535507255344</v>
       </c>
       <c r="W33" t="n">
-        <v>473.0514315687844</v>
+        <v>264.3322141738714</v>
       </c>
       <c r="X33" t="n">
-        <v>369.7493417449642</v>
+        <v>44.8242197905677</v>
       </c>
       <c r="Y33" t="n">
-        <v>144.1086486802919</v>
+        <v>35.66075944394102</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.98934377257913</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="C34" t="n">
-        <v>119.3660703972831</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="D34" t="n">
-        <v>187.804582436036</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="E34" t="n">
-        <v>259.7145384228898</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="F34" t="n">
-        <v>260.0540801966774</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="G34" t="n">
-        <v>260.0540801966774</v>
+        <v>35.66075944394102</v>
       </c>
       <c r="H34" t="n">
-        <v>260.0540801966774</v>
+        <v>72.84944115462531</v>
       </c>
       <c r="I34" t="n">
-        <v>260.0540801966774</v>
+        <v>72.84944115462531</v>
       </c>
       <c r="J34" t="n">
-        <v>260.0540801966774</v>
+        <v>72.84944115462531</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966774</v>
+        <v>72.84944115462531</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966774</v>
+        <v>72.84944115462531</v>
       </c>
       <c r="M34" t="n">
         <v>260.0540801966774</v>
@@ -6895,13 +6895,13 @@
         <v>122.9678848370225</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099205</v>
+        <v>46.20197908099207</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010586</v>
+        <v>38.51814573010589</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394102</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361094</v>
+        <v>623.01906753611</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513517</v>
+        <v>544.0833815513522</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756362</v>
+        <v>477.7066225756366</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338509</v>
+        <v>377.2826389338512</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786697</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K35" t="n">
-        <v>20.8368647496023</v>
+        <v>278.6930660259309</v>
       </c>
       <c r="L35" t="n">
-        <v>67.55770723036247</v>
+        <v>325.4139085066911</v>
       </c>
       <c r="M35" t="n">
-        <v>148.4196063173098</v>
+        <v>583.2701097830197</v>
       </c>
       <c r="N35" t="n">
-        <v>223.7474994530022</v>
+        <v>805.4091053848069</v>
       </c>
       <c r="O35" t="n">
-        <v>459.7290154982976</v>
+        <v>839.6297400774747</v>
       </c>
       <c r="P35" t="n">
-        <v>714.1265394444258</v>
+        <v>839.6297400774747</v>
       </c>
       <c r="Q35" t="n">
-        <v>894.6504963510841</v>
+        <v>1020.153696984133</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0563429962471</v>
+        <v>1020.153696984133</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962471</v>
+        <v>1020.153696984133</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1020.153696984133</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.529484598414</v>
+        <v>992.5294845984149</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413451</v>
+        <v>926.027165841346</v>
       </c>
       <c r="X35" t="n">
-        <v>837.417523378277</v>
+        <v>837.4175233782778</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447606</v>
+        <v>726.0777262447613</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C36" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D36" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E36" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F36" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G36" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H36" t="n">
-        <v>129.2847539859532</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K36" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548271</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938569</v>
       </c>
       <c r="M36" t="n">
         <v>357.8097564978623</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086216</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276561</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857558</v>
+        <v>778.040785785756</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857558</v>
+        <v>778.040785785756</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857558</v>
+        <v>778.040785785756</v>
       </c>
       <c r="S36" t="n">
-        <v>584.5147339473676</v>
+        <v>584.5147339473679</v>
       </c>
       <c r="T36" t="n">
-        <v>584.5147339473676</v>
+        <v>584.5147339473679</v>
       </c>
       <c r="U36" t="n">
-        <v>344.8904213242478</v>
+        <v>344.890421324248</v>
       </c>
       <c r="V36" t="n">
-        <v>344.8904213242478</v>
+        <v>101.8107032278821</v>
       </c>
       <c r="W36" t="n">
-        <v>256.290334375624</v>
+        <v>101.8107032278821</v>
       </c>
       <c r="X36" t="n">
-        <v>256.290334375624</v>
+        <v>101.8107032278821</v>
       </c>
       <c r="Y36" t="n">
-        <v>256.290334375624</v>
+        <v>101.8107032278821</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="L37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="M37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="N37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411124</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411124</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411124</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411124</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411124</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411124</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078088</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078088</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.01906753611</v>
+        <v>623.019067536111</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513523</v>
+        <v>544.0833815513531</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756365</v>
+        <v>477.7066225756373</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338512</v>
+        <v>377.2826389338518</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634019</v>
+        <v>244.8179102634024</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786699</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="I38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="J38" t="n">
-        <v>20.8368647496023</v>
+        <v>214.1616385483601</v>
       </c>
       <c r="K38" t="n">
-        <v>20.8368647496023</v>
+        <v>214.1616385483601</v>
       </c>
       <c r="L38" t="n">
-        <v>225.2218366221477</v>
+        <v>401.1721838796695</v>
       </c>
       <c r="M38" t="n">
-        <v>306.0837357090951</v>
+        <v>482.0340829666169</v>
       </c>
       <c r="N38" t="n">
-        <v>381.4116288447875</v>
+        <v>739.8902842429459</v>
       </c>
       <c r="O38" t="n">
-        <v>415.6322635374553</v>
+        <v>997.7464855192749</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835835</v>
+        <v>997.7464855192749</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902418</v>
+        <v>997.7464855192749</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354047</v>
+        <v>997.7464855192749</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962471</v>
+        <v>1041.843237480117</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480117</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480117</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984145</v>
+        <v>992.5294845984165</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413455</v>
+        <v>926.0271658413475</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782775</v>
+        <v>837.4175233782789</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447612</v>
+        <v>726.0777262447623</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.8368647496023</v>
+        <v>134.2399271710289</v>
       </c>
       <c r="C39" t="n">
-        <v>20.8368647496023</v>
+        <v>134.2399271710289</v>
       </c>
       <c r="D39" t="n">
-        <v>20.8368647496023</v>
+        <v>134.2399271710289</v>
       </c>
       <c r="E39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="F39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="G39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="H39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="K39" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548275</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938569</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978624</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086217</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276562</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857562</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857562</v>
       </c>
       <c r="R39" t="n">
-        <v>671.1295762873632</v>
+        <v>778.0407857857562</v>
       </c>
       <c r="S39" t="n">
-        <v>477.603524448975</v>
+        <v>778.0407857857562</v>
       </c>
       <c r="T39" t="n">
-        <v>260.4611773727221</v>
+        <v>778.0407857857562</v>
       </c>
       <c r="U39" t="n">
-        <v>20.8368647496023</v>
+        <v>538.4164731626363</v>
       </c>
       <c r="V39" t="n">
-        <v>20.8368647496023</v>
+        <v>538.4164731626363</v>
       </c>
       <c r="W39" t="n">
-        <v>20.8368647496023</v>
+        <v>538.4164731626363</v>
       </c>
       <c r="X39" t="n">
-        <v>20.8368647496023</v>
+        <v>538.4164731626363</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.8368647496023</v>
+        <v>312.7757800979639</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.6019038529327</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078068</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.2727625607809</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753167</v>
+        <v>818.4263542753166</v>
       </c>
       <c r="C41" t="n">
         <v>708.127638956425</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465753</v>
+        <v>610.3878506465754</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706562</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660731</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1484294164039</v>
+        <v>135.1484294164037</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>241.5586498727253</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4617675668866</v>
+        <v>526.879163876807</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538339</v>
+        <v>607.7410629637543</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6515597895263</v>
+        <v>921.6686276227681</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055154</v>
+        <v>1194.488933838757</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1194.488933838757</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1344.273985695031</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1389.940927289809</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181019</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988575</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7506,25 +7506,25 @@
         <v>701.644783262059</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201589</v>
+        <v>785.269896520159</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201589</v>
+        <v>785.269896520159</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201589</v>
+        <v>649.1892896625048</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201589</v>
+        <v>649.1892896625048</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201589</v>
+        <v>432.046942586252</v>
       </c>
       <c r="U42" t="n">
-        <v>766.1849559147523</v>
+        <v>432.046942586252</v>
       </c>
       <c r="V42" t="n">
-        <v>523.1052378183864</v>
+        <v>432.046942586252</v>
       </c>
       <c r="W42" t="n">
         <v>253.7066685486777</v>
@@ -7533,7 +7533,7 @@
         <v>253.7066685486777</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="F43" t="n">
-        <v>129.1280336110645</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="G43" t="n">
-        <v>129.1280336110645</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="H43" t="n">
-        <v>129.1280336110645</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="I43" t="n">
-        <v>129.1280336110645</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="J43" t="n">
-        <v>129.1280336110645</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="K43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="L43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="M43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="O43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="P43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="Q43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="S43" t="n">
-        <v>129.1280336110645</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="T43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606945</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323047</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931761</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753156</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564252</v>
+        <v>708.1276389564239</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465758</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706565</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660732</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1484294164039</v>
+        <v>135.1484294164038</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308619</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9121095349434</v>
+        <v>196.0474763765159</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7740086218907</v>
+        <v>515.5090469867846</v>
       </c>
       <c r="N44" t="n">
-        <v>864.1019017575832</v>
+        <v>829.4366116457984</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055154</v>
+        <v>1102.256917861788</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1325.915536757531</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1325.915536757531</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.582478352311</v>
+        <v>1371.582478352309</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262767</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674156</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582953</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785751</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181007</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.8460917229736</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="C45" t="n">
-        <v>188.8460917229736</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>69.96934149783471</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988575</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
@@ -7743,34 +7743,34 @@
         <v>701.644783262059</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.269896520159</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="R45" t="n">
-        <v>649.1892896625047</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="S45" t="n">
-        <v>455.6632378241165</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="T45" t="n">
-        <v>238.5208907478637</v>
+        <v>561.1887051265719</v>
       </c>
       <c r="U45" t="n">
-        <v>238.5208907478637</v>
+        <v>321.564392503452</v>
       </c>
       <c r="V45" t="n">
-        <v>238.5208907478637</v>
+        <v>321.564392503452</v>
       </c>
       <c r="W45" t="n">
-        <v>188.8460917229736</v>
+        <v>295.6100345625071</v>
       </c>
       <c r="X45" t="n">
-        <v>188.8460917229736</v>
+        <v>295.6100345625071</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.8460917229736</v>
+        <v>69.96934149783471</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="K46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="S46" t="n">
         <v>130.133623560695</v>
@@ -7837,19 +7837,19 @@
         <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323075</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931775</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400534</v>
       </c>
     </row>
   </sheetData>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.1666678622357</v>
@@ -8778,13 +8778,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,13 +9009,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566415</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>146.9406900512589</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281112</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891596</v>
       </c>
       <c r="E11" t="n">
-        <v>4.832714589321085</v>
+        <v>193.3306479085685</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869456</v>
+        <v>225.0509854869458</v>
       </c>
       <c r="G11" t="n">
-        <v>200.9862714854067</v>
+        <v>240.6899088095809</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240837</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675142</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.7481996726992</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416385</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613493</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247656</v>
+        <v>7.44104290551843</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0572332281112</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891596</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085684</v>
+        <v>193.3306479085685</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869457</v>
+        <v>225.0509854869458</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095809</v>
       </c>
       <c r="H14" t="n">
-        <v>123.2180418583799</v>
+        <v>168.8731344554829</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240826</v>
+        <v>33.48801775266559</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>159.7481996726992</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416384</v>
+        <v>181.6344501416385</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613499</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-2.415845301584341e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769753.9333165911</v>
+        <v>769753.9333165912</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>890735.4024119964</v>
+        <v>890735.4024119962</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>683497.2962617563</v>
+      </c>
+      <c r="C2" t="n">
         <v>683497.296261756</v>
       </c>
-      <c r="C2" t="n">
-        <v>683497.2962617559</v>
-      </c>
       <c r="D2" t="n">
-        <v>683892.019682341</v>
+        <v>683892.0196823411</v>
       </c>
       <c r="E2" t="n">
-        <v>588794.9572805793</v>
+        <v>588794.9572805783</v>
       </c>
       <c r="F2" t="n">
-        <v>588794.9572805793</v>
+        <v>588794.9572805781</v>
       </c>
       <c r="G2" t="n">
-        <v>684881.8753653653</v>
+        <v>684881.8753653651</v>
       </c>
       <c r="H2" t="n">
-        <v>684881.8753653652</v>
+        <v>684881.8753653651</v>
       </c>
       <c r="I2" t="n">
-        <v>684881.8753653654</v>
+        <v>684881.8753653649</v>
       </c>
       <c r="J2" t="n">
-        <v>684881.8753653649</v>
+        <v>684881.8753653648</v>
       </c>
       <c r="K2" t="n">
-        <v>684881.8753653649</v>
+        <v>684881.8753653647</v>
       </c>
       <c r="L2" t="n">
         <v>684881.8753653648</v>
@@ -26347,13 +26347,13 @@
         <v>684881.8753653652</v>
       </c>
       <c r="N2" t="n">
+        <v>684881.8753653654</v>
+      </c>
+      <c r="O2" t="n">
         <v>684881.8753653651</v>
       </c>
-      <c r="O2" t="n">
-        <v>684881.8753653652</v>
-      </c>
       <c r="P2" t="n">
-        <v>684881.8753653654</v>
+        <v>684881.8753653653</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>993.7829156774217</v>
+        <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787143</v>
+        <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913331</v>
+        <v>95439.52541913341</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068793</v>
+        <v>143496.2830068791</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262469</v>
+        <v>96101.69331262473</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232282</v>
+        <v>46197.36629232268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924376</v>
+        <v>72254.91485924362</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>408917.9495512589</v>
       </c>
       <c r="E4" t="n">
-        <v>296218.5005573042</v>
+        <v>296218.5005573041</v>
       </c>
       <c r="F4" t="n">
         <v>296218.5005573041</v>
@@ -26433,7 +26433,7 @@
         <v>366826.368600526</v>
       </c>
       <c r="H4" t="n">
-        <v>366826.368600526</v>
+        <v>366826.3686005261</v>
       </c>
       <c r="I4" t="n">
         <v>366826.368600526</v>
@@ -26454,10 +26454,10 @@
         <v>366789.8388182006</v>
       </c>
       <c r="O4" t="n">
-        <v>367176.9014819183</v>
+        <v>367176.9014819184</v>
       </c>
       <c r="P4" t="n">
-        <v>367176.9014819183</v>
+        <v>367176.9014819182</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26494,22 +26494,22 @@
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016353</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.7475828481</v>
+        <v>47324.74758284812</v>
       </c>
       <c r="M5" t="n">
         <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868732</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887321</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>240789.5732085407</v>
+        <v>240785.1068243359</v>
       </c>
       <c r="C6" t="n">
-        <v>240789.5732085406</v>
+        <v>240785.1068243355</v>
       </c>
       <c r="D6" t="n">
-        <v>240158.1728372918</v>
+        <v>240154.9797544435</v>
       </c>
       <c r="E6" t="n">
-        <v>-15192.615393187</v>
+        <v>-15502.57319346119</v>
       </c>
       <c r="F6" t="n">
-        <v>263933.4997855274</v>
+        <v>263623.5419852528</v>
       </c>
       <c r="G6" t="n">
-        <v>183943.6425798819</v>
+        <v>183943.6425798815</v>
       </c>
       <c r="H6" t="n">
-        <v>279383.167999015</v>
+        <v>279383.1679990148</v>
       </c>
       <c r="I6" t="n">
-        <v>279383.1679990152</v>
+        <v>279383.1679990147</v>
       </c>
       <c r="J6" t="n">
         <v>126321.3489794245</v>
       </c>
       <c r="K6" t="n">
-        <v>269817.6319863037</v>
+        <v>269817.6319863033</v>
       </c>
       <c r="L6" t="n">
         <v>173855.6582783729</v>
       </c>
       <c r="M6" t="n">
-        <v>230981.3746561544</v>
+        <v>230981.3746561547</v>
       </c>
       <c r="N6" t="n">
-        <v>277178.7409484771</v>
+        <v>277178.7409484775</v>
       </c>
       <c r="O6" t="n">
-        <v>201652.9311953299</v>
+        <v>201652.9311953298</v>
       </c>
       <c r="P6" t="n">
-        <v>273907.8460545739</v>
+        <v>273907.8460545738</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26716,13 +26716,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="O2" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="P2" t="n">
         <v>241.009769215476</v>
@@ -26796,7 +26796,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="F4" t="n">
         <v>188.4979333192472</v>
@@ -26811,25 +26811,25 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.958742689276</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892761</v>
+        <v>448.9587426892762</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492627</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700293</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500667</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500667</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739168</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008414</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540352</v>
+        <v>57.74670786540335</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
         <v>185.2986836792338</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003838</v>
+        <v>90.36388418003747</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739168</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008414</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.199249640013591</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
         <v>185.2986836792338</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.2171558310243</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
@@ -27901,7 +27901,7 @@
         <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>236.91502223125</v>
       </c>
       <c r="T8" t="n">
         <v>224.246294399988</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173.9325953147419</v>
+        <v>173.5512447576523</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
@@ -27944,13 +27944,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>146.144319312168</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
@@ -27986,7 +27986,7 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -27995,10 +27995,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>214.1136647994571</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>220.1850364940121</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78161896459402</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K11" t="n">
-        <v>149.6743412741498</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530678</v>
+        <v>136.7442232013222</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446044746268</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>17.56830793843948</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>28.81498112022331</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>91.72055201193368</v>
       </c>
     </row>
     <row r="13">
@@ -28248,16 +28248,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
@@ -28266,55 +28266,55 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
-        <v>178.1482641530678</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2396075829089</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K13" t="n">
         <v>67.02998013918996</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530678</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M13" t="n">
-        <v>25.21686539889342</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="N13" t="n">
-        <v>56.72117202427918</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>73.63643193459086</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3051631366612</v>
+        <v>134.5823689230613</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19.41168532311833</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>18.96607769384204</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446044746268</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>63.08287272235077</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764137</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G16" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I16" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J16" t="n">
         <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>104.8758189267317</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817886</v>
+        <v>100.0265264095717</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889342</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459402</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300915</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>108.5981149453012</v>
+        <v>159.7774519370392</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R17" t="n">
+        <v>194.8815453823668</v>
+      </c>
+      <c r="S17" t="n">
         <v>297.4476709269844</v>
       </c>
-      <c r="S17" t="n">
-        <v>227.5169945584482</v>
-      </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U17" t="n">
         <v>297.4476709269844</v>
@@ -28640,22 +28640,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>122.5691923330037</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>117.4354255961115</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624304</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022336</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28749,16 +28749,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M19" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P19" t="n">
         <v>58.47859890024885</v>
@@ -28819,43 +28819,43 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>264.5852354411522</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459402</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300915</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108871</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269844</v>
+        <v>294.0043327357575</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28883,16 +28883,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
@@ -28934,10 +28934,10 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764138</v>
       </c>
       <c r="V21" t="n">
-        <v>194.3168565197823</v>
+        <v>176.4558690664273</v>
       </c>
       <c r="W21" t="n">
         <v>78.20665025776435</v>
@@ -28986,16 +28986,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M22" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P22" t="n">
         <v>58.47859890024885</v>
@@ -29059,40 +29059,40 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>146.4853090233795</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300915</v>
+        <v>23.89072591849428</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108871</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>151.3309895984299</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>111.5776607538096</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477838</v>
       </c>
     </row>
     <row r="25">
@@ -29223,16 +29223,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M25" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P25" t="n">
         <v>58.47859890024885</v>
@@ -29360,13 +29360,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.4847505240009</v>
@@ -29411,13 +29411,13 @@
         <v>213.4847505240009</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>197.3094799459248</v>
+        <v>208.6238119646592</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>213.4847505240009</v>
@@ -29460,22 +29460,22 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M28" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N28" t="n">
+        <v>16.52015736928131</v>
+      </c>
+      <c r="O28" t="n">
+        <v>183.7826494989476</v>
+      </c>
+      <c r="P28" t="n">
+        <v>58.47859890024885</v>
+      </c>
+      <c r="Q28" t="n">
         <v>213.4847505240009</v>
-      </c>
-      <c r="O28" t="n">
-        <v>37.47888399777677</v>
-      </c>
-      <c r="P28" t="n">
-        <v>94.0855358070116</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>204.2279918176351</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>97.81390091069662</v>
       </c>
       <c r="X30" t="n">
         <v>213.484750524001</v>
@@ -29697,19 +29697,19 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M31" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928132</v>
+        <v>22.27692649523459</v>
       </c>
       <c r="O31" t="n">
-        <v>198.2418047474827</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024885</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29782,13 +29782,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>194.1953356407509</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407516</v>
       </c>
       <c r="Q32" t="n">
         <v>214.3124603908652</v>
@@ -29846,10 +29846,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>206.1406823640665</v>
       </c>
       <c r="U33" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>214.3124603908652</v>
       </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
-        <v>115.0438455138886</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="34">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3124603908652</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>214.3124603908652</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>139.269853707121</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8243976546666</v>
+        <v>203.3887226149537</v>
       </c>
       <c r="I34" t="n">
         <v>164.852968067965</v>
@@ -29934,16 +29934,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889342</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P34" t="n">
         <v>58.47859890024885</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="I35" t="n">
         <v>241.009769215476</v>
@@ -30010,49 +30010,49 @@
         <v>76.78161896459402</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300915</v>
+        <v>267.1880015163298</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7821234236174</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>148.2940428950452</v>
       </c>
       <c r="O35" t="n">
-        <v>203.7988700531592</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562687</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>96.58639430416878</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30080,13 +30080,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890776</v>
@@ -30122,10 +30122,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>178.9904974978741</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30171,16 +30171,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M37" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O37" t="n">
-        <v>73.03538593162381</v>
+        <v>73.03538593162418</v>
       </c>
       <c r="P37" t="n">
         <v>58.47859890024885</v>
@@ -30198,13 +30198,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="I38" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459402</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300915</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L38" t="n">
-        <v>159.2566963553387</v>
+        <v>141.7067705561103</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248854</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.8945117006678</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,7 +30308,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>59.55854004258744</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,16 +30344,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R39" t="n">
-        <v>28.87770338566894</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>177.232643146072</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30408,16 +30408,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P40" t="n">
         <v>58.47859890024885</v>
@@ -30432,16 +30432,16 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T40" t="n">
-        <v>223.761558450323</v>
+        <v>240.6959413829799</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7311341856404</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="C41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="D41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="E41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="F41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="G41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="H41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="I41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K41" t="n">
-        <v>241.009769215476</v>
+        <v>222.376358195513</v>
       </c>
       <c r="L41" t="n">
-        <v>54.69629248006514</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="O41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="V41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="W41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="X41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
     </row>
     <row r="42">
@@ -30560,7 +30560,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>218.3339782975361</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>90.14771227981299</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>241.009769215476</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7007749271525</v>
@@ -30642,19 +30642,19 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918996</v>
+        <v>170.1286145600881</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M43" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024885</v>
@@ -30669,16 +30669,16 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T43" t="n">
-        <v>224.7773058741922</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="V43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="W43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154762</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,28 +30718,28 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
+        <v>76.781618964594</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.727192146300901</v>
+      </c>
+      <c r="L44" t="n">
+        <v>122.4855135472226</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="K44" t="n">
+      <c r="N44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="L44" t="n">
+      <c r="O44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>54.69629248006507</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742191</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30779,7 +30779,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>10.99083803021149</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>217.5265325423704</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>239.2030507838281</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,22 +30879,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
-        <v>170.1286145600886</v>
+        <v>67.02998013918995</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889341</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024884</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -30903,7 +30903,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -31753,7 +31753,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501027</v>
@@ -31762,31 +31762,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L11" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168794</v>
@@ -31835,28 +31835,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K12" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q12" t="n">
         <v>27.77822605795505</v>
@@ -31868,7 +31868,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375089</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H13" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M13" t="n">
         <v>28.59833074786395</v>
@@ -31932,10 +31932,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P13" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27687899545177</v>
@@ -31947,10 +31947,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501027</v>
@@ -31999,31 +31999,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L14" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168794</v>
@@ -32072,28 +32072,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K15" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q15" t="n">
         <v>27.77822605795505</v>
@@ -32105,7 +32105,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375089</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H16" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M16" t="n">
         <v>28.59833074786395</v>
@@ -32169,10 +32169,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P16" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545177</v>
@@ -32184,10 +32184,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501027</v>
@@ -32236,31 +32236,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L17" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168794</v>
@@ -32309,28 +32309,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K18" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q18" t="n">
         <v>27.77822605795505</v>
@@ -32342,7 +32342,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375089</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H19" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M19" t="n">
         <v>28.59833074786395</v>
@@ -32406,10 +32406,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P19" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545177</v>
@@ -32421,10 +32421,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501027</v>
@@ -32473,31 +32473,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L20" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168794</v>
@@ -32546,28 +32546,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K21" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795505</v>
@@ -32579,7 +32579,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375089</v>
@@ -32619,22 +32619,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H22" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M22" t="n">
         <v>28.59833074786395</v>
@@ -32643,10 +32643,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P22" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27687899545177</v>
@@ -32658,10 +32658,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501027</v>
@@ -32710,31 +32710,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L23" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168794</v>
@@ -32783,28 +32783,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K24" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795505</v>
@@ -32816,7 +32816,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375089</v>
@@ -32856,22 +32856,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H25" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M25" t="n">
         <v>28.59833074786395</v>
@@ -32880,10 +32880,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P25" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545177</v>
@@ -32895,10 +32895,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501027</v>
@@ -32947,31 +32947,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L26" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168794</v>
@@ -33020,28 +33020,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K27" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795505</v>
@@ -33053,7 +33053,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375089</v>
@@ -33093,22 +33093,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H28" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M28" t="n">
         <v>28.59833074786395</v>
@@ -33117,10 +33117,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P28" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545177</v>
@@ -33132,10 +33132,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501027</v>
@@ -33184,31 +33184,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L29" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168794</v>
@@ -33257,28 +33257,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K30" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q30" t="n">
         <v>27.77822605795505</v>
@@ -33290,7 +33290,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375089</v>
@@ -33330,22 +33330,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H31" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M31" t="n">
         <v>28.59833074786395</v>
@@ -33354,10 +33354,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P31" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27687899545177</v>
@@ -33369,10 +33369,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501027</v>
@@ -33421,31 +33421,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L32" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168794</v>
@@ -33494,28 +33494,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K33" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795505</v>
@@ -33527,7 +33527,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375089</v>
@@ -33567,22 +33567,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H34" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M34" t="n">
         <v>28.59833074786395</v>
@@ -33591,10 +33591,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P34" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545177</v>
@@ -33606,10 +33606,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501027</v>
@@ -33658,31 +33658,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L35" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168794</v>
@@ -33731,28 +33731,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K36" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795505</v>
@@ -33764,7 +33764,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375089</v>
@@ -33804,22 +33804,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H37" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M37" t="n">
         <v>28.59833074786395</v>
@@ -33828,10 +33828,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P37" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545177</v>
@@ -33843,10 +33843,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501027</v>
@@ -33895,31 +33895,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L38" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168794</v>
@@ -33968,28 +33968,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K39" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795505</v>
@@ -34001,7 +34001,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375089</v>
@@ -34041,22 +34041,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H40" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M40" t="n">
         <v>28.59833074786395</v>
@@ -34065,10 +34065,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P40" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545177</v>
@@ -34080,10 +34080,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501027</v>
@@ -34132,31 +34132,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L41" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168794</v>
@@ -34205,28 +34205,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K42" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795505</v>
@@ -34238,7 +34238,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375089</v>
@@ -34278,22 +34278,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H43" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M43" t="n">
         <v>28.59833074786395</v>
@@ -34302,10 +34302,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P43" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545177</v>
@@ -34317,10 +34317,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631739</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217856</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501028</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645946</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246063</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556028</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178823</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318175</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610835</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168795</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705391</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650135</v>
       </c>
       <c r="H45" t="n">
         <v>2.10169233712263</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729629</v>
+        <v>7.492409103729631</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000176</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133257</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795505</v>
       </c>
       <c r="R45" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922251</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935664</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971373</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375089</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H46" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014384</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786396</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309195</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P46" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545178</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542662</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629253</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.779517221567944</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.00995128367959079</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35146,7 +35146,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.199249640013477</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.3666451884736</v>
       </c>
       <c r="K11" t="n">
-        <v>142.9471491278489</v>
+        <v>171.4210720067667</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>121.6522508502335</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4365271156459</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181828</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,16 +35544,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109548</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235695</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462118</v>
+        <v>39.22138193462101</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,31 +35562,31 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.29529608510279</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015871</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.996447904889</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541742</v>
       </c>
       <c r="N13" t="n">
-        <v>40.20101465499787</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6693801552911</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.669665252819</v>
+        <v>15.15783303434201</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.93127818937845</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>171.4210720067667</v>
       </c>
       <c r="L14" t="n">
+        <v>181.7751391056474</v>
+      </c>
+      <c r="M14" t="n">
+        <v>81.67868594641146</v>
+      </c>
+      <c r="N14" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="M14" t="n">
-        <v>81.67868594641145</v>
-      </c>
-      <c r="N14" t="n">
-        <v>76.08878094514387</v>
-      </c>
       <c r="O14" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P14" t="n">
-        <v>4.319712972029619</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564584</v>
+        <v>88.43652711564573</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>38.34679395543476</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M15" t="n">
         <v>183.5117642464702</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5313434880995658</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235695</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462101</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840108</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.29529608510262</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>37.84583878754177</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>67.8747101613929</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541742</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837865</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>140.6693801552909</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937857</v>
+        <v>50.93127818937845</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514387</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P17" t="n">
-        <v>93.50614259421248</v>
+        <v>144.6854795859505</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>47.29712943433467</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>23.57546622567616</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641145</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514387</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>99.12278735339073</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433467</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150838</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J23" t="n">
-        <v>69.70369005878545</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>17.16353377219337</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641145</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514387</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936142</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
         <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433467</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163409</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9645931547196</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>146.3037655011708</v>
       </c>
       <c r="P28" t="n">
-        <v>35.60693690676274</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.26776456031169</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>206.7575583777001</v>
       </c>
       <c r="L29" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065871</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704125</v>
       </c>
       <c r="N29" t="n">
         <v>289.5735314691449</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933625</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729123</v>
+        <v>198.3927781729124</v>
       </c>
       <c r="Q29" t="n">
         <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163416</v>
+        <v>18.60320514163422</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.808609311776</v>
+        <v>71.80860931177605</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5.756769125953281</v>
       </c>
       <c r="O31" t="n">
-        <v>160.762920749706</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0061516237522</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>270.2841165858948</v>
+        <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>179.1033632896629</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849838</v>
+        <v>19.43091500849839</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,25 +37200,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589711</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889285</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12981014015449</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>72.63631917864021</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3429714886743164</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>37.56432496028717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>189.0955949919718</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37306,37 +37306,37 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641145</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514387</v>
+        <v>224.3828238401891</v>
       </c>
       <c r="O35" t="n">
-        <v>238.3651677225206</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P35" t="n">
-        <v>256.96719590518</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188468</v>
+        <v>182.3474312188466</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>21.9086267636188</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>35.55650193384704</v>
+        <v>35.55650193384741</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37540,40 +37540,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916745</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>206.4494665379247</v>
+        <v>188.8995407386964</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514387</v>
+        <v>260.4608093700293</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936142</v>
+        <v>260.4608093700293</v>
       </c>
       <c r="P38" t="n">
-        <v>256.96719590518</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188468</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782054</v>
+        <v>44.54217369782038</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37728,13 +37728,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.93438293265693</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>18.62211900119047</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>215.6491660492121</v>
       </c>
       <c r="L41" t="n">
-        <v>101.8890626626512</v>
+        <v>288.2025393980622</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514387</v>
+        <v>317.0985501606201</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848375</v>
+        <v>275.5760668848376</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643873</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>151.2980321780543</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310923</v>
+        <v>46.12822383310937</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702801</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.0828869970294</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>103.0986344208982</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.015747423869211</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2825770691751</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2025393980621</v>
+        <v>169.6782837298087</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641145</v>
+        <v>322.6884551618875</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514387</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
-        <v>89.26259014942649</v>
+        <v>275.5760668848375</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643873</v>
+        <v>225.9177968643874</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.12822383310923</v>
@@ -38111,7 +38111,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.52690957160313</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295483</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
